--- a/cypress/fixtures/ATC - Automation Test Cases - Sign in.xlsx
+++ b/cypress/fixtures/ATC - Automation Test Cases - Sign in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\Dec2024\Test Cases Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD49717-8A58-486E-9414-81B7C6F2D034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41989D60-71E9-4EAE-A84E-F53CA070E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{194445C3-2074-4AFA-BA7B-B3111AEEEE03}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>Screenshot</t>
   </si>
   <si>
-    <t>Verifies sign in button text and clicks on sign in button</t>
-  </si>
-  <si>
-    <t>Button Text: Sign In</t>
-  </si>
-  <si>
     <t>Shoud be visible and clickable</t>
   </si>
   <si>
@@ -200,6 +194,12 @@
       </rPr>
       <t>: For Test Steps, please go through my Automation Scripts</t>
     </r>
+  </si>
+  <si>
+    <t>Verifies sign in text and clicks on sign in button</t>
+  </si>
+  <si>
+    <t>Text: Sign In</t>
   </si>
 </sst>
 </file>
@@ -965,7 +965,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1031,19 +1031,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -1054,19 +1054,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -1078,19 +1078,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -1101,19 +1101,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -1124,19 +1124,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -1147,19 +1147,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -1170,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -1198,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
